--- a/ProdMecânico.xlsx
+++ b/ProdMecânico.xlsx
@@ -341,49 +341,49 @@
     <t>9</t>
   </si>
   <si>
+    <t xml:space="preserve">Erro operacional 
+Atraso na triagem (Motor kit cilindro e rosca do cabeçote) :1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro Operacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro operacional 1 </t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>Iot : 1</t>
+  </si>
+  <si>
+    <t>Moto Problemática</t>
+  </si>
+  <si>
+    <t>Moto problematica ( cabeçote e cilindro )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto com pendência no documento - 1
+</t>
+  </si>
+  <si>
     <t>Atraso Borracharia</t>
   </si>
   <si>
     <t>Atraso Estoque</t>
   </si>
   <si>
-    <t xml:space="preserve">Erro Operacional </t>
+    <t xml:space="preserve">FPU6E73 erro operacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema elétrico </t>
   </si>
   <si>
     <t xml:space="preserve">1- erro operacional 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Erro operacional 
-Atraso na triagem (Motor kit cilindro e rosca do cabeçote) :1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro operacional 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPU6E73 erro operacional </t>
-  </si>
-  <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>Iot : 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-moto poblematica </t>
-  </si>
-  <si>
-    <t>Moto Problemática</t>
-  </si>
-  <si>
-    <t>Moto problematica ( cabeçote e cilindro )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moto com pendência no documento - 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problema elétrico </t>
   </si>
 </sst>
 </file>
@@ -8972,33 +8972,33 @@
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4">
         <v>1.0</v>
@@ -9009,10 +9009,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>107</v>
@@ -9023,16 +9023,16 @@
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4">
         <v>1.0</v>
@@ -9040,16 +9040,16 @@
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E6" s="4">
         <v>1.0</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -9066,10 +9066,10 @@
         <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
@@ -9079,79 +9079,79 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
+      <c r="A9" s="11">
+        <v>45772.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="4">
+        <v>111</v>
+      </c>
+      <c r="E9" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4">
+        <v>111</v>
+      </c>
+      <c r="E10" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
+      <c r="C12" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <v>1.0</v>
@@ -9159,33 +9159,33 @@
     </row>
     <row r="13" ht="18.0" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="4">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12">
         <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4">
         <v>1.0</v>
@@ -9198,11 +9198,11 @@
       <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>112</v>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E15" s="4">
         <v>1.0</v>
@@ -9210,16 +9210,16 @@
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4">
         <v>1.0</v>
@@ -9227,16 +9227,16 @@
     </row>
     <row r="17" ht="18.0" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E17" s="4">
         <v>1.0</v>
@@ -9246,14 +9246,14 @@
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>88</v>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E18" s="4">
         <v>1.0</v>
@@ -9261,16 +9261,16 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="4">
         <v>1.0</v>
@@ -9278,33 +9278,33 @@
     </row>
     <row r="20" ht="18.0" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="18.0" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4">
         <v>1.0</v>
@@ -9315,13 +9315,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" s="4">
         <v>1.0</v>
@@ -9329,69 +9329,69 @@
     </row>
     <row r="23" ht="18.0" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="4">
+        <v>111</v>
+      </c>
+      <c r="E23" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="4">
+        <v>111</v>
+      </c>
+      <c r="E24" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="18.0" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="4">
+        <v>111</v>
+      </c>
+      <c r="E25" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="10">
+        <v>117</v>
+      </c>
+      <c r="E26" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -9400,149 +9400,149 @@
         <v>17</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="10">
+        <v>114</v>
+      </c>
+      <c r="E27" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="10">
+        <v>107</v>
+      </c>
+      <c r="E28" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="18.0" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="10">
+        <v>107</v>
+      </c>
+      <c r="E29" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="18.0" customHeight="1">
-      <c r="A30" s="11">
-        <v>45772.0</v>
+      <c r="A30" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="10">
+        <v>111</v>
+      </c>
+      <c r="E30" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="18.0" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="10">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="18.0" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E32" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="18.0" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34" ht="18.0" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="12">
+        <v>109</v>
+      </c>
+      <c r="E34" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="18.0" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E35" s="4">
         <v>1.0</v>
@@ -10440,6 +10440,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$E$35">
     <sortState ref="A1:E35">
+      <sortCondition ref="B1:B35"/>
       <sortCondition ref="D1:D35"/>
       <sortCondition ref="A1:A35"/>
       <sortCondition ref="C1:C35"/>
